--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B56D1C-D841-444C-B5E3-E7A963DFF4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC353D55-424B-5540-9E22-21E96725EB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37280" windowHeight="13160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="451">
   <si>
     <t>Day</t>
   </si>
@@ -3330,9 +3330,9 @@
       </c>
     </row>
     <row r="35" spans="1:1" ht="16">
-      <c r="A35" s="27" t="str">
+      <c r="A35" s="27" t="e">
         <f>IF(ISBLANK(Schedule!A33),"",CONCATENATE("| ",Schedule!A33," | ",Schedule!B33," | ",Schedule!C33," | ",TEXT(Schedule!D33,"mm/dd")," | ",Schedule!#REF!," |"))</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1">
@@ -5863,11 +5863,11 @@
     <row r="32" spans="1:5" ht="51">
       <c r="A32" s="29" t="str">
         <f>IF(ISBLANK(Schedule!B33),"",CONCATENATE("session",Schedule!B33))</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="str">
+        <v>session29</v>
+      </c>
+      <c r="B32" s="18" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="C32" s="12" t="e">
         <f>Schedule!#REF!</f>
@@ -6788,11 +6788,11 @@
   <dimension ref="A1:U955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" sqref="A1:E33"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -6800,8 +6800,8 @@
     <col min="1" max="1" width="11.1640625" style="36" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="19">
@@ -7764,11 +7764,13 @@
       <c r="U32" s="27"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="84" t="s">
-        <v>447</v>
-      </c>
+      <c r="A33" s="27">
+        <v>17</v>
+      </c>
+      <c r="B33" s="27">
+        <v>29</v>
+      </c>
+      <c r="C33" s="84"/>
       <c r="D33" s="84"/>
       <c r="E33" s="27" t="s">
         <v>448</v>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0D5E7-F6D3-164C-A1AD-2D6CBAFF8E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BDEF6D-9C56-7148-8E60-629EF070C8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t>Day</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Basic Data Structures</t>
   </si>
   <si>
-    <t>File name</t>
-  </si>
-  <si>
     <t>textbook_logo</t>
   </si>
   <si>
@@ -541,6 +535,9 @@
   </si>
   <si>
     <t>assignments/02starter</t>
+  </si>
+  <si>
+    <t>IMS Chapter 2</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1108,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>1</v>
@@ -1145,10 +1142,10 @@
         <v>Mon</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1166,10 +1163,10 @@
         <v>Thu</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1">
@@ -1184,10 +1181,10 @@
         <v>Mon</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1205,10 +1202,10 @@
         <v>Tue</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1227,10 +1224,10 @@
         <v>Thu</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1249,10 +1246,10 @@
         <v>Mon</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1271,10 +1268,10 @@
         <v>Thu</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1293,10 +1290,10 @@
         <v>Mon</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1315,10 +1312,10 @@
         <v>Thu</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1337,10 +1334,10 @@
         <v>Mon</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1359,10 +1356,10 @@
         <v>Thu</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1381,10 +1378,10 @@
         <v>Mon</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1403,10 +1400,10 @@
         <v>Thu</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1421,10 +1418,10 @@
         <v>Mon</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1442,10 +1439,10 @@
         <v>Thu</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1464,10 +1461,10 @@
         <v>Mon</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1486,10 +1483,10 @@
         <v>Thu</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1508,10 +1505,10 @@
         <v>Mon</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1530,10 +1527,10 @@
         <v>Thu</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1552,10 +1549,10 @@
         <v>Mon</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1574,10 +1571,10 @@
         <v>Thu</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1596,10 +1593,10 @@
         <v>Mon</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1618,10 +1615,10 @@
         <v>Thu</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1640,10 +1637,10 @@
         <v>Mon</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1662,10 +1659,10 @@
         <v>Thu</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1680,10 +1677,10 @@
         <v>Mon</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1701,10 +1698,10 @@
         <v>Thu</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1722,10 +1719,10 @@
         <v>Mon</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1744,10 +1741,10 @@
         <v>Thu</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1766,10 +1763,10 @@
         <v>Mon</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1788,23 +1785,23 @@
         <v>Thu</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="11"/>
       <c r="C36" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -2087,17 +2084,17 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2117,15 +2114,15 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19">
       <c r="B11" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2137,12 +2134,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2159,10 +2156,10 @@
   <sheetData>
     <row r="1" spans="1:22" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -2174,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -2196,10 +2193,10 @@
         <v>Mon</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2220,10 +2217,10 @@
         <v>Thu</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2242,11 +2239,11 @@
         <v>Mon</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -2264,10 +2261,10 @@
         <v>Tue</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2289,10 +2286,10 @@
         <v>Thu</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -2314,10 +2311,10 @@
         <v>Mon</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2339,10 +2336,10 @@
         <v>Thu</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2364,10 +2361,10 @@
         <v>Mon</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2389,10 +2386,10 @@
         <v>Thu</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2429,10 +2426,10 @@
         <v>Mon</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2469,10 +2466,10 @@
         <v>Thu</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2509,10 +2506,10 @@
         <v>Mon</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2549,10 +2546,10 @@
         <v>Thu</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2586,10 +2583,10 @@
         <v>Mon</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2625,10 +2622,10 @@
         <v>Thu</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -2665,10 +2662,10 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2705,10 +2702,10 @@
         <v>Thu</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -2745,10 +2742,10 @@
         <v>Mon</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -2785,10 +2782,10 @@
         <v>Thu</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -2825,10 +2822,10 @@
         <v>Mon</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -2865,10 +2862,10 @@
         <v>Thu</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -2905,10 +2902,10 @@
         <v>Mon</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -2945,10 +2942,10 @@
         <v>Thu</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -2985,10 +2982,10 @@
         <v>Mon</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
@@ -3025,10 +3022,10 @@
         <v>Thu</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -3062,10 +3059,10 @@
         <v>Mon</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -3101,10 +3098,10 @@
         <v>Thu</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -3140,10 +3137,10 @@
         <v>Mon</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -3180,10 +3177,10 @@
         <v>Thu</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
@@ -3220,10 +3217,10 @@
         <v>Mon</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
@@ -3260,10 +3257,10 @@
         <v>Thu</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
@@ -3294,10 +3291,10 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G33" s="5">
         <v>0</v>
@@ -7945,7 +7942,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7959,16 +7956,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -7976,15 +7973,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="8"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:4">
@@ -8100,7 +8102,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8112,16 +8114,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -8129,13 +8131,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -8143,13 +8145,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -8157,13 +8159,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8439,7 +8441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8455,19 +8457,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1" ht="19">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -8475,16 +8477,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="30">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
@@ -8492,16 +8494,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="29">
         <v>44084</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11285,7 +11287,7 @@
         <v>43703</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
@@ -11293,7 +11295,7 @@
         <v>43705</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -11301,7 +11303,7 @@
         <v>43706</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
@@ -11309,7 +11311,7 @@
         <v>43707</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -11323,7 +11325,7 @@
         <v>43710</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -11331,7 +11333,7 @@
         <v>43711</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -11339,7 +11341,7 @@
         <v>43721</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -11347,15 +11349,15 @@
         <v>43728</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
@@ -11369,7 +11371,7 @@
         <v>43752</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
@@ -11377,15 +11379,15 @@
         <v>43753</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
@@ -11393,15 +11395,15 @@
         <v>43757</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
@@ -11409,7 +11411,7 @@
         <v>43763</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -11420,10 +11422,10 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -11431,15 +11433,15 @@
         <v>43770</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -11447,7 +11449,7 @@
         <v>43777</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -11455,7 +11457,7 @@
         <v>43787</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -11463,7 +11465,7 @@
         <v>43791</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
@@ -11471,15 +11473,15 @@
         <v>43795</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
@@ -11493,7 +11495,7 @@
         <v>43800</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -11501,7 +11503,7 @@
         <v>43801</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -11509,7 +11511,7 @@
         <v>43801</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -11517,15 +11519,15 @@
         <v>43810</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
@@ -11533,15 +11535,15 @@
         <v>43815</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -11549,15 +11551,15 @@
         <v>43820</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
@@ -11565,7 +11567,7 @@
         <v>43830</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
@@ -11576,10 +11578,10 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -11587,7 +11589,7 @@
         <v>43833</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
@@ -11595,7 +11597,7 @@
         <v>43842</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
@@ -11603,7 +11605,7 @@
         <v>43843</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
@@ -11611,7 +11613,7 @@
         <v>43850</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
@@ -11619,7 +11621,7 @@
         <v>43854</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
@@ -11633,7 +11635,7 @@
         <v>43868</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
@@ -11641,7 +11643,7 @@
         <v>43878</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -11649,7 +11651,7 @@
         <v>43879</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
@@ -11663,15 +11665,15 @@
         <v>43892</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
@@ -11679,15 +11681,15 @@
         <v>43896</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -11695,7 +11697,7 @@
         <v>43905</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
@@ -11703,15 +11705,15 @@
         <v>43906</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -11719,7 +11721,7 @@
         <v>43915</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -11727,7 +11729,7 @@
         <v>43917</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
@@ -11741,7 +11743,7 @@
         <v>43931</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
@@ -11749,7 +11751,7 @@
         <v>43945</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
@@ -11757,15 +11759,15 @@
         <v>43950</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
@@ -11773,7 +11775,7 @@
         <v>43951</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
@@ -11784,10 +11786,10 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
@@ -11795,15 +11797,15 @@
         <v>43955</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
@@ -11811,7 +11813,7 @@
         <v>43955</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
@@ -11819,7 +11821,7 @@
         <v>43959</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
@@ -11827,7 +11829,7 @@
         <v>43960</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
@@ -11835,7 +11837,7 @@
         <v>43973</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
@@ -11843,7 +11845,7 @@
         <v>43974</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
@@ -11851,7 +11853,7 @@
         <v>43974</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1"/>
@@ -12879,7 +12881,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="e">
         <f>#REF!</f>
@@ -12888,7 +12890,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="7" t="e">
         <f>#REF!</f>
@@ -12897,7 +12899,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7" t="e">
         <f>#REF!</f>
@@ -12906,7 +12908,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7" t="e">
         <f>#REF!</f>
@@ -12915,7 +12917,7 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="24" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
@@ -12924,7 +12926,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="9" t="e">
         <f>#REF!</f>
@@ -12933,7 +12935,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="7" t="e">
         <f>#REF!</f>
@@ -12942,7 +12944,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7" t="e">
         <f>#REF!</f>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BDEF6D-9C56-7148-8E60-629EF070C8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC564C-CCF4-174F-8312-3C8F992E7FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
   <si>
     <t>Day</t>
   </si>
@@ -538,6 +538,18 @@
   </si>
   <si>
     <t>IMS Chapter 2</t>
+  </si>
+  <si>
+    <t>file/syllabus.pdf</t>
+  </si>
+  <si>
+    <t>Initial Survey</t>
+  </si>
+  <si>
+    <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Syllabus </t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -7939,10 +7951,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7968,33 +7980,53 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4">
       <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="14">
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="8"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:4">
@@ -8091,8 +8123,11 @@
       <c r="C29" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{EB91D8CE-227F-7A43-A1D7-C63227E19CF0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8442,7 +8477,7 @@
   <dimension ref="A1:E922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC564C-CCF4-174F-8312-3C8F992E7FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FF12F-EABE-7A48-A422-0810DD6C58FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="172">
   <si>
     <t>Day</t>
   </si>
@@ -507,9 +507,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t xml:space="preserve">In this class we will simply be providing a high level overview of the class.  We will introduce the basics of the concepts and the approaches used. </t>
   </si>
   <si>
@@ -543,13 +540,19 @@
     <t>file/syllabus.pdf</t>
   </si>
   <si>
-    <t>Initial Survey</t>
-  </si>
-  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
-    <t xml:space="preserve">Review Syllabus </t>
+    <t>https://eurl.io/#YnuX1CwNt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please review the syllabus to ensure you have an understanding of expectations for the class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please take this short initial survey that will help me in delivering a good  class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join this Webex Teams space. </t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2099,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2134,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2211,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -2232,7 +2235,7 @@
         <v>117</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -7954,13 +7957,13 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="36" style="11" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="46" style="11" customWidth="1"/>
     <col min="4" max="4" width="32.1640625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="11"/>
@@ -7985,10 +7988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>153</v>
@@ -7999,38 +8002,45 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4">
       <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:4">
@@ -8169,7 +8179,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
@@ -8183,7 +8193,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>96</v>
@@ -8194,10 +8204,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8532,7 +8542,7 @@
         <v>154</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="29">
         <v>44084</v>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FF12F-EABE-7A48-A422-0810DD6C58FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390F631-72A8-EA45-92E1-D71D12730926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -537,9 +537,6 @@
     <t>IMS Chapter 2</t>
   </si>
   <si>
-    <t>file/syllabus.pdf</t>
-  </si>
-  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
@@ -553,6 +550,9 @@
   </si>
   <si>
     <t xml:space="preserve">Join this Webex Teams space. </t>
+  </si>
+  <si>
+    <t>files/syllabus.pdf</t>
   </si>
 </sst>
 </file>
@@ -761,10 +761,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -780,6 +776,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1104,7 +1104,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="11"/>
-    <col min="3" max="4" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="61.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" customWidth="1"/>
@@ -1128,7 +1128,7 @@
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1149,7 +1149,7 @@
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>44074</v>
       </c>
       <c r="D5" s="16" t="str">
@@ -1170,7 +1170,7 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>44077</v>
       </c>
       <c r="D6" s="16" t="str">
@@ -1188,7 +1188,7 @@
       <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>44081</v>
       </c>
       <c r="D7" s="16" t="str">
@@ -1209,7 +1209,7 @@
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>44082</v>
       </c>
       <c r="D8" s="16" t="str">
@@ -1231,7 +1231,7 @@
         <f t="shared" ref="B9:B29" si="1">B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>44084</v>
       </c>
       <c r="D9" s="16" t="str">
@@ -1253,7 +1253,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>44088</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -1275,7 +1275,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>44091</v>
       </c>
       <c r="D11" s="16" t="str">
@@ -1297,7 +1297,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>44095</v>
       </c>
       <c r="D12" s="16" t="str">
@@ -1319,7 +1319,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>44098</v>
       </c>
       <c r="D13" s="16" t="str">
@@ -1341,7 +1341,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <v>44102</v>
       </c>
       <c r="D14" s="16" t="str">
@@ -1363,7 +1363,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <v>44105</v>
       </c>
       <c r="D15" s="16" t="str">
@@ -1385,7 +1385,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="27">
         <v>44109</v>
       </c>
       <c r="D16" s="16" t="str">
@@ -1407,7 +1407,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <v>44112</v>
       </c>
       <c r="D17" s="16" t="str">
@@ -1425,7 +1425,7 @@
       <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>44116</v>
       </c>
       <c r="D18" s="16" t="str">
@@ -1446,7 +1446,7 @@
       <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>44119</v>
       </c>
       <c r="D19" s="16" t="str">
@@ -1468,7 +1468,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <v>44123</v>
       </c>
       <c r="D20" s="16" t="str">
@@ -1490,7 +1490,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <v>44126</v>
       </c>
       <c r="D21" s="16" t="str">
@@ -1512,7 +1512,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="27">
         <v>44130</v>
       </c>
       <c r="D22" s="16" t="str">
@@ -1534,7 +1534,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <v>44133</v>
       </c>
       <c r="D23" s="16" t="str">
@@ -1556,7 +1556,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="27">
         <v>44137</v>
       </c>
       <c r="D24" s="16" t="str">
@@ -1578,7 +1578,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>44140</v>
       </c>
       <c r="D25" s="16" t="str">
@@ -1600,7 +1600,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="27">
         <v>44144</v>
       </c>
       <c r="D26" s="16" t="str">
@@ -1622,7 +1622,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <v>44147</v>
       </c>
       <c r="D27" s="16" t="str">
@@ -1644,7 +1644,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <v>44151</v>
       </c>
       <c r="D28" s="16" t="str">
@@ -1666,7 +1666,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="27">
         <v>44154</v>
       </c>
       <c r="D29" s="16" t="str">
@@ -1684,7 +1684,7 @@
       <c r="A30" s="11">
         <v>13</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <v>44158</v>
       </c>
       <c r="D30" s="16" t="str">
@@ -1705,7 +1705,7 @@
       <c r="B31" s="11">
         <v>24</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="27">
         <v>44161</v>
       </c>
       <c r="D31" s="16" t="str">
@@ -1726,7 +1726,7 @@
       <c r="B32" s="11">
         <v>25</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <v>44165</v>
       </c>
       <c r="D32" s="16" t="str">
@@ -1748,7 +1748,7 @@
         <f t="shared" ref="B33:B35" si="2">B32+1</f>
         <v>26</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="27">
         <v>44168</v>
       </c>
       <c r="D33" s="16" t="str">
@@ -1770,7 +1770,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="27">
         <v>44172</v>
       </c>
       <c r="D34" s="16" t="str">
@@ -1792,7 +1792,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="27">
         <v>44175</v>
       </c>
       <c r="D35" s="16" t="str">
@@ -1808,10 +1808,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="11"/>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="30"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="11" t="s">
         <v>144</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="19">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2176,7 +2176,7 @@
       <c r="B1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -2188,10 +2188,10 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="11">
@@ -2200,7 +2200,7 @@
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>44074</v>
       </c>
       <c r="D2" s="16" t="str">
@@ -2224,7 +2224,7 @@
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>44077</v>
       </c>
       <c r="D3" s="16" t="str">
@@ -2246,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>44081</v>
       </c>
       <c r="D4" s="16" t="str">
@@ -2268,7 +2268,7 @@
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>44082</v>
       </c>
       <c r="D5" s="16" t="str">
@@ -2293,7 +2293,7 @@
         <f t="shared" ref="B6:B26" si="1">B5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>44084</v>
       </c>
       <c r="D6" s="16" t="str">
@@ -2318,7 +2318,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>44088</v>
       </c>
       <c r="D7" s="16" t="str">
@@ -2343,7 +2343,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>44091</v>
       </c>
       <c r="D8" s="16" t="str">
@@ -2368,7 +2368,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>44095</v>
       </c>
       <c r="D9" s="16" t="str">
@@ -2393,7 +2393,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>44098</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -2433,7 +2433,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>44102</v>
       </c>
       <c r="D11" s="16" t="str">
@@ -2473,7 +2473,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>44105</v>
       </c>
       <c r="D12" s="16" t="str">
@@ -2513,7 +2513,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>44109</v>
       </c>
       <c r="D13" s="16" t="str">
@@ -2553,7 +2553,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <v>44112</v>
       </c>
       <c r="D14" s="16" t="str">
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <v>44116</v>
       </c>
       <c r="D15" s="16" t="str">
@@ -2629,7 +2629,7 @@
       <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="27">
         <v>44119</v>
       </c>
       <c r="D16" s="16" t="str">
@@ -2669,7 +2669,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <v>44123</v>
       </c>
       <c r="D17" s="16" t="str">
@@ -2709,7 +2709,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>44126</v>
       </c>
       <c r="D18" s="16" t="str">
@@ -2749,7 +2749,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>44130</v>
       </c>
       <c r="D19" s="16" t="str">
@@ -2789,7 +2789,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <v>44133</v>
       </c>
       <c r="D20" s="16" t="str">
@@ -2829,7 +2829,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <v>44137</v>
       </c>
       <c r="D21" s="16" t="str">
@@ -2869,7 +2869,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="27">
         <v>44140</v>
       </c>
       <c r="D22" s="16" t="str">
@@ -2909,7 +2909,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <v>44144</v>
       </c>
       <c r="D23" s="16" t="str">
@@ -2949,7 +2949,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="27">
         <v>44147</v>
       </c>
       <c r="D24" s="16" t="str">
@@ -2989,7 +2989,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>44151</v>
       </c>
       <c r="D25" s="16" t="str">
@@ -3029,7 +3029,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="27">
         <v>44154</v>
       </c>
       <c r="D26" s="16" t="str">
@@ -3066,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <v>44158</v>
       </c>
       <c r="D27" s="16" t="str">
@@ -3105,7 +3105,7 @@
       <c r="B28" s="11">
         <v>24</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <v>44161</v>
       </c>
       <c r="D28" s="16" t="str">
@@ -3144,7 +3144,7 @@
       <c r="B29" s="11">
         <v>25</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="27">
         <v>44165</v>
       </c>
       <c r="D29" s="16" t="str">
@@ -3184,7 +3184,7 @@
         <f t="shared" ref="B30:B32" si="2">B29+1</f>
         <v>26</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <v>44168</v>
       </c>
       <c r="D30" s="16" t="str">
@@ -3224,7 +3224,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="27">
         <v>44172</v>
       </c>
       <c r="D31" s="16" t="str">
@@ -3264,7 +3264,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <v>44175</v>
       </c>
       <c r="D32" s="16" t="str">
@@ -3303,8 +3303,8 @@
       <c r="B33" s="11">
         <v>29</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
         <v>144</v>
       </c>
@@ -7957,7 +7957,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7988,10 +7988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>153</v>
@@ -8002,10 +8002,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8016,10 +8016,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8206,7 +8206,7 @@
       <c r="B4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -8493,7 +8493,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="32" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
@@ -8504,16 +8504,16 @@
       <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8521,13 +8521,13 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <v>44081</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -8538,13 +8538,13 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>44084</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -11360,10 +11360,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="34">
         <v>43709</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -11406,10 +11406,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="34">
         <v>43739</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -11460,10 +11460,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="27">
+      <c r="A18" s="34">
         <v>43770</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -11530,10 +11530,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="27">
+      <c r="A27" s="34">
         <v>43800</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -11616,10 +11616,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="27">
+      <c r="A38" s="34">
         <v>43831</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -11670,10 +11670,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="27">
+      <c r="A45" s="34">
         <v>43862</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -11700,10 +11700,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="27">
+      <c r="A49" s="34">
         <v>43891</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -11778,10 +11778,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="27">
+      <c r="A59" s="34">
         <v>43922</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="35"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -11824,10 +11824,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="27">
+      <c r="A65" s="34">
         <v>43952</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390F631-72A8-EA45-92E1-D71D12730926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0694DFB-3A25-5F47-ABCF-B5D74C8429EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7957,7 +7957,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/ms-website-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0694DFB-3A25-5F47-ABCF-B5D74C8429EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10FDA31F-9596-AC45-8D0C-F6DA357E1338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
